--- a/va_facility_data_2025-02-20/Navy Corpsman Steve Andrews Department of Veterans Affairs Health Care Clinic - Facility Data.xlsx"; filename*=UTF-8''Navy%20Corpsman%20Steve%20Andrews%20Department%20of%20Veterans%20Affairs%20Health%20Care%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Navy Corpsman Steve Andrews Department of Veterans Affairs Health Care Clinic - Facility Data.xlsx"; filename*=UTF-8''Navy%20Corpsman%20Steve%20Andrews%20Department%20of%20Veterans%20Affairs%20Health%20Care%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R763b69418a9547248f1c76b62522a10c"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rf06cc0821b3e434ca84b6873d52e1bc6"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R826c2457f0694f53845e1528c9a198e7"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="Rb6136271a24b4ef99265424b03225421"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R4fac9c8fafb64b199da2a8a070e6d0b4"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R36591d97c5f24af399edc39bf4961ffe"/>
   </x:sheets>
 </x:workbook>
 </file>
